--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\academic\06_simulation\Public_share\meta_atom_library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC81255-555E-4AA2-9C03-C55C6ECD75C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C277B0-FB8D-423C-BA93-5635442F76DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10110" tabRatio="419" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="backup" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -47,8 +52,35 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>apple</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{061B5B6C-E3F1-41D1-8FFC-BE2F66D8ACFF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="新細明體"/>
+            <family val="2"/>
+            <charset val="136"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">apple:
+Any value asks to simulate this structure
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>simulate?</t>
   </si>
@@ -67,12 +99,15 @@
   <si>
     <t>Adj. Phase</t>
   </si>
+  <si>
+    <t>diameters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +125,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -132,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -154,6 +195,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -169,6 +219,4344 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>backup!$B$6:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1.9999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7000000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8000000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2000000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3000000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3999999999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8000000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9000000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2E-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2100000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2199999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2300000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2399999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2500000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.2599999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.27E-7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2800000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.2899999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3000000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3099999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.32E-7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3300000000000003E-7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.34E-7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3500000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.3599999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3700000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.3799999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.39E-7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.4000000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.4999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7E-7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7999999999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.8999999999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.9999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.0999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.2E-7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.2499999999999995E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>backup!$C$6:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.98792000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98943000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99124999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99297999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99475000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99678</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99792000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99894000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99922</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99777000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98704000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97377999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95362999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93830999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95572000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97033000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98014999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98165999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97592000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91174999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.89141000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84701000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.78512999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68020999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50470999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.26996999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19606000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.48454000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65842999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.79449000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.86151999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.89680000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.91554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.93181999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.94284999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95228000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95706000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.96065999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.97131999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.96492999999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95889000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94894999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.93711999999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.92710999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.91710999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.90581999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.90134000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30EC-4BC2-BB6D-D6DCC930B676}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="371154896"/>
+        <c:axId val="581144720"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[2]20120418'!$D$6:$D$57</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="52"/>
+                      <c:pt idx="0">
+                        <c:v>1.9999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.1E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.2000000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.2999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.3999999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.4999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.6E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.7000000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.8000000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.8999999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.9999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.1E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.2000000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.3000000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3.3999999999999997E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.4999999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3.5999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.7E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.8000000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.9000000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.9999999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4.0999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>4.2E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4.2100000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.2199999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4.2300000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4.2399999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.2500000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>4.2599999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>4.27E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>4.2800000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4.2899999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4.3000000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>4.3099999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>4.32E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>4.3300000000000003E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>4.34E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4.3500000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>4.3599999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>4.3700000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4.3799999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>4.39E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>4.4000000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4.4999999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4.5999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>4.7E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>4.7999999999999996E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>4.8999999999999997E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>4.9999999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>5.0999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>5.2E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>5.2499999999999995E-7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[2]20120418'!$G$6:$G$57</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="52"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.0489783835573968E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.4572238898137618E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.4328445150385632E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.5553652768184299E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.7372508825149082E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.3491735076824193E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.1501723649489613E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.10190699613889784</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.12798614714205231</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.15769562546353919</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.19210336167354747</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.24257461985809736</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.30126305469523396</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.37326958641961555</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.45335164677758716</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.52696405323419038</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.59969792366285868</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.65914075356746116</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.71380415649400464</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.75991138245283452</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.79983702520061506</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.8496159587979335</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.85836471340945186</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.86635588985195389</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.88001298705432607</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.89610356539204672</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.91789667015746812</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.95083381345115059</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.97916978345360162</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.74349771930773922</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.66769533898439959</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.69811624050242083</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.72859443784835065</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.75497757504957685</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.77944289356663354</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.79165645421585884</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.80913645638036791</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.8151461521076907</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.82137866494354772</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.8270636843127207</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.83156299835433645</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.83623579143045401</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.86786627153766094</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.89091351831397481</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.91002645157388462</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.9270846927829538</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.94479546980987339</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.9609322031200761</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.97515430084765997</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.9913849356536022</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.99860580152088596</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-30EC-4BC2-BB6D-D6DCC930B676}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="371154896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.2500000000000027E-7"/>
+          <c:min val="2.000000000000001E-7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="581144720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="581144720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371154896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>backup!$B$6:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1.9999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7000000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8000000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2000000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3000000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3999999999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8000000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9000000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2E-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2100000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2199999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2300000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2399999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2500000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.2599999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.27E-7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2800000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.2899999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3000000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3099999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.32E-7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3300000000000003E-7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.34E-7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3500000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.3599999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3700000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.3799999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.39E-7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.4000000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.4999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7E-7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7999999999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.8999999999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.9999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.0999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.2E-7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.2499999999999995E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>backup!$E$6:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0489783835573968E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4572238898137618E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4328445150385632E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5553652768184299E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7372508825149082E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3491735076824193E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1501723649489613E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10190699613889784</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12798614714205231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15769562546353919</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19210336167354747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24257461985809736</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30126305469523396</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37326958641961555</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45335164677758716</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52696405323419038</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59969792366285868</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65914075356746116</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71380415649400464</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75991138245283452</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79983702520061506</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8496159587979335</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85836471340945186</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86635588985195389</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.88001298705432607</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89610356539204672</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91789667015746812</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95083381345115059</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97916978345360162</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74349771930773922</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66769533898439959</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69811624050242083</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.72859443784835065</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.75497757504957685</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77944289356663354</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.79165645421585884</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.80913645638036791</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8151461521076907</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.82137866494354772</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8270636843127207</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83156299835433645</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.83623579143045401</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86786627153766094</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.89091351831397481</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.91002645157388462</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9270846927829538</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94479546980987339</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9609322031200761</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.97515430084765997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.9913849356536022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99860580152088596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-190A-4FC5-A1AE-6CA70A17A365}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="371154896"/>
+        <c:axId val="581144720"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[2]20120418'!$D$6:$D$57</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="52"/>
+                      <c:pt idx="0">
+                        <c:v>1.9999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.1E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.2000000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.2999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.3999999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.4999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.6E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.7000000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.8000000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.8999999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.9999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.1E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.2000000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.3000000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3.3999999999999997E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.4999999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3.5999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.7E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.8000000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.9000000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.9999999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4.0999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>4.2E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4.2100000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.2199999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4.2300000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4.2399999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.2500000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>4.2599999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>4.27E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>4.2800000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4.2899999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4.3000000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>4.3099999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>4.32E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>4.3300000000000003E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>4.34E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4.3500000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>4.3599999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>4.3700000000000001E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4.3799999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>4.39E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>4.4000000000000002E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4.4999999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4.5999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>4.7E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>4.7999999999999996E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>4.8999999999999997E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>4.9999999999999998E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>5.0999999999999999E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>5.2E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>5.2499999999999995E-7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'[2]20120418'!$E$6:$E$57</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="52"/>
+                      <c:pt idx="0">
+                        <c:v>0.98792000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.98943000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.99124999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.99297999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.99475000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.99678</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.99792000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.99894000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.99922</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.99777000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.99434</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.98704000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.97377999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.95362999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.93830999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.93125000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.93859999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.95572000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.97033000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.98014999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.98165999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.97592000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.93100000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.91174999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.89141000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.84701000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.78512999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.68020999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.50470999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.26996999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>3.6999999999999999E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.19606000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.48454000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.65842999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.79449000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.86151999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.89680000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.91554000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.93181999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.94284999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.95228000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.95706000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.96065999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.97131999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.96492999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.95889000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.94894999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.93711999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.92710999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.91710999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.90581999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.90134000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-190A-4FC5-A1AE-6CA70A17A365}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="371154896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.2500000000000027E-7"/>
+          <c:min val="2.000000000000001E-7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="581144720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="581144720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371154896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>612247</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>64029</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="群組 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AA7F8A-412B-4BC5-9A07-BDCFA3F129B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6037792" y="190500"/>
+          <a:ext cx="5776914" cy="4837112"/>
+          <a:chOff x="5289551" y="268288"/>
+          <a:chExt cx="5776914" cy="4837112"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="圖片 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69137413-3909-42D6-9F57-370AA57BE7DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5289551" y="268288"/>
+            <a:ext cx="5674685" cy="4837112"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="4" name="圖表 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8438DE05-94B3-4690-B543-4BF3FA5AB4B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5575305" y="484188"/>
+          <a:ext cx="5491160" cy="4438657"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>612246</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="群組 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399DB5C7-6D84-45ED-9D92-96DBC9F95D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6037792" y="5344583"/>
+          <a:ext cx="5776913" cy="4822825"/>
+          <a:chOff x="5270506" y="5380038"/>
+          <a:chExt cx="5776913" cy="4822825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="圖片 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772C51AB-BFA6-44B0-A25D-AAECE7C3A7FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5270506" y="5380038"/>
+            <a:ext cx="5672134" cy="4822825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="7" name="圖表 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9831401-7DC7-4AB2-80EB-9294F3E876BE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5556259" y="5581651"/>
+          <a:ext cx="5491160" cy="4438656"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="parameters"/>
+      <sheetName val="backup"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="6">
+          <cell r="B6">
+            <v>1.9999999999999999E-7</v>
+          </cell>
+          <cell r="C6">
+            <v>0.98792000000000002</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>2.1E-7</v>
+          </cell>
+          <cell r="C7">
+            <v>0.98943000000000003</v>
+          </cell>
+          <cell r="E7">
+            <v>7.0489783835573968E-3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>2.2000000000000001E-7</v>
+          </cell>
+          <cell r="C8">
+            <v>0.99124999999999996</v>
+          </cell>
+          <cell r="E8">
+            <v>1.4572238898137618E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>2.2999999999999999E-7</v>
+          </cell>
+          <cell r="C9">
+            <v>0.99297999999999997</v>
+          </cell>
+          <cell r="E9">
+            <v>2.4328445150385632E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>2.3999999999999998E-7</v>
+          </cell>
+          <cell r="C10">
+            <v>0.99475000000000002</v>
+          </cell>
+          <cell r="E10">
+            <v>3.5553652768184299E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>2.4999999999999999E-7</v>
+          </cell>
+          <cell r="C11">
+            <v>0.99678</v>
+          </cell>
+          <cell r="E11">
+            <v>4.7372508825149082E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>2.6E-7</v>
+          </cell>
+          <cell r="C12">
+            <v>0.99792000000000003</v>
+          </cell>
+          <cell r="E12">
+            <v>6.3491735076824193E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>2.7000000000000001E-7</v>
+          </cell>
+          <cell r="C13">
+            <v>0.99894000000000005</v>
+          </cell>
+          <cell r="E13">
+            <v>8.1501723649489613E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>2.8000000000000002E-7</v>
+          </cell>
+          <cell r="C14">
+            <v>0.99922</v>
+          </cell>
+          <cell r="E14">
+            <v>0.10190699613889784</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>2.8999999999999998E-7</v>
+          </cell>
+          <cell r="C15">
+            <v>0.99777000000000005</v>
+          </cell>
+          <cell r="E15">
+            <v>0.12798614714205231</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>2.9999999999999999E-7</v>
+          </cell>
+          <cell r="C16">
+            <v>0.99434</v>
+          </cell>
+          <cell r="E16">
+            <v>0.15769562546353919</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>3.1E-7</v>
+          </cell>
+          <cell r="C17">
+            <v>0.98704000000000003</v>
+          </cell>
+          <cell r="E17">
+            <v>0.19210336167354747</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>3.2000000000000001E-7</v>
+          </cell>
+          <cell r="C18">
+            <v>0.97377999999999998</v>
+          </cell>
+          <cell r="E18">
+            <v>0.24257461985809736</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>3.3000000000000002E-7</v>
+          </cell>
+          <cell r="C19">
+            <v>0.95362999999999998</v>
+          </cell>
+          <cell r="E19">
+            <v>0.30126305469523396</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>3.3999999999999997E-7</v>
+          </cell>
+          <cell r="C20">
+            <v>0.93830999999999998</v>
+          </cell>
+          <cell r="E20">
+            <v>0.37326958641961555</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>3.4999999999999998E-7</v>
+          </cell>
+          <cell r="C21">
+            <v>0.93125000000000002</v>
+          </cell>
+          <cell r="E21">
+            <v>0.45335164677758716</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>3.5999999999999999E-7</v>
+          </cell>
+          <cell r="C22">
+            <v>0.93859999999999999</v>
+          </cell>
+          <cell r="E22">
+            <v>0.52696405323419038</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>3.7E-7</v>
+          </cell>
+          <cell r="C23">
+            <v>0.95572000000000001</v>
+          </cell>
+          <cell r="E23">
+            <v>0.59969792366285868</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>3.8000000000000001E-7</v>
+          </cell>
+          <cell r="C24">
+            <v>0.97033000000000003</v>
+          </cell>
+          <cell r="E24">
+            <v>0.65914075356746116</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>3.9000000000000002E-7</v>
+          </cell>
+          <cell r="C25">
+            <v>0.98014999999999997</v>
+          </cell>
+          <cell r="E25">
+            <v>0.71380415649400464</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>3.9999999999999998E-7</v>
+          </cell>
+          <cell r="C26">
+            <v>0.98165999999999998</v>
+          </cell>
+          <cell r="E26">
+            <v>0.75991138245283452</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>4.0999999999999999E-7</v>
+          </cell>
+          <cell r="C27">
+            <v>0.97592000000000001</v>
+          </cell>
+          <cell r="E27">
+            <v>0.79983702520061506</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>4.2E-7</v>
+          </cell>
+          <cell r="C28">
+            <v>0.93100000000000005</v>
+          </cell>
+          <cell r="E28">
+            <v>0.8496159587979335</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>4.2100000000000002E-7</v>
+          </cell>
+          <cell r="C29">
+            <v>0.91174999999999995</v>
+          </cell>
+          <cell r="E29">
+            <v>0.85836471340945186</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>4.2199999999999999E-7</v>
+          </cell>
+          <cell r="C30">
+            <v>0.89141000000000004</v>
+          </cell>
+          <cell r="E30">
+            <v>0.86635588985195389</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>4.2300000000000002E-7</v>
+          </cell>
+          <cell r="C31">
+            <v>0.84701000000000004</v>
+          </cell>
+          <cell r="E31">
+            <v>0.88001298705432607</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>4.2399999999999999E-7</v>
+          </cell>
+          <cell r="C32">
+            <v>0.78512999999999999</v>
+          </cell>
+          <cell r="E32">
+            <v>0.89610356539204672</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>4.2500000000000001E-7</v>
+          </cell>
+          <cell r="C33">
+            <v>0.68020999999999998</v>
+          </cell>
+          <cell r="E33">
+            <v>0.91789667015746812</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>4.2599999999999998E-7</v>
+          </cell>
+          <cell r="C34">
+            <v>0.50470999999999999</v>
+          </cell>
+          <cell r="E34">
+            <v>0.95083381345115059</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>4.27E-7</v>
+          </cell>
+          <cell r="C35">
+            <v>0.26996999999999999</v>
+          </cell>
+          <cell r="E35">
+            <v>0.97916978345360162</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>4.2800000000000002E-7</v>
+          </cell>
+          <cell r="C36">
+            <v>3.6999999999999999E-4</v>
+          </cell>
+          <cell r="E36">
+            <v>0.74349771930773922</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>4.2899999999999999E-7</v>
+          </cell>
+          <cell r="C37">
+            <v>0.19606000000000001</v>
+          </cell>
+          <cell r="E37">
+            <v>0.66769533898439959</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>4.3000000000000001E-7</v>
+          </cell>
+          <cell r="C38">
+            <v>0.48454000000000003</v>
+          </cell>
+          <cell r="E38">
+            <v>0.69811624050242083</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>4.3099999999999998E-7</v>
+          </cell>
+          <cell r="C39">
+            <v>0.65842999999999996</v>
+          </cell>
+          <cell r="E39">
+            <v>0.72859443784835065</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>4.32E-7</v>
+          </cell>
+          <cell r="C40">
+            <v>0.79449000000000003</v>
+          </cell>
+          <cell r="E40">
+            <v>0.75497757504957685</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>4.3300000000000003E-7</v>
+          </cell>
+          <cell r="C41">
+            <v>0.86151999999999995</v>
+          </cell>
+          <cell r="E41">
+            <v>0.77944289356663354</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>4.34E-7</v>
+          </cell>
+          <cell r="C42">
+            <v>0.89680000000000004</v>
+          </cell>
+          <cell r="E42">
+            <v>0.79165645421585884</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>4.3500000000000002E-7</v>
+          </cell>
+          <cell r="C43">
+            <v>0.91554000000000002</v>
+          </cell>
+          <cell r="E43">
+            <v>0.80913645638036791</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>4.3599999999999999E-7</v>
+          </cell>
+          <cell r="C44">
+            <v>0.93181999999999998</v>
+          </cell>
+          <cell r="E44">
+            <v>0.8151461521076907</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>4.3700000000000001E-7</v>
+          </cell>
+          <cell r="C45">
+            <v>0.94284999999999997</v>
+          </cell>
+          <cell r="E45">
+            <v>0.82137866494354772</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>4.3799999999999998E-7</v>
+          </cell>
+          <cell r="C46">
+            <v>0.95228000000000002</v>
+          </cell>
+          <cell r="E46">
+            <v>0.8270636843127207</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>4.39E-7</v>
+          </cell>
+          <cell r="C47">
+            <v>0.95706000000000002</v>
+          </cell>
+          <cell r="E47">
+            <v>0.83156299835433645</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>4.4000000000000002E-7</v>
+          </cell>
+          <cell r="C48">
+            <v>0.96065999999999996</v>
+          </cell>
+          <cell r="E48">
+            <v>0.83623579143045401</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>4.4999999999999998E-7</v>
+          </cell>
+          <cell r="C49">
+            <v>0.97131999999999996</v>
+          </cell>
+          <cell r="E49">
+            <v>0.86786627153766094</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>4.5999999999999999E-7</v>
+          </cell>
+          <cell r="C50">
+            <v>0.96492999999999995</v>
+          </cell>
+          <cell r="E50">
+            <v>0.89091351831397481</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>4.7E-7</v>
+          </cell>
+          <cell r="C51">
+            <v>0.95889000000000002</v>
+          </cell>
+          <cell r="E51">
+            <v>0.91002645157388462</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>4.7999999999999996E-7</v>
+          </cell>
+          <cell r="C52">
+            <v>0.94894999999999996</v>
+          </cell>
+          <cell r="E52">
+            <v>0.9270846927829538</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>4.8999999999999997E-7</v>
+          </cell>
+          <cell r="C53">
+            <v>0.93711999999999995</v>
+          </cell>
+          <cell r="E53">
+            <v>0.94479546980987339</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>4.9999999999999998E-7</v>
+          </cell>
+          <cell r="C54">
+            <v>0.92710999999999999</v>
+          </cell>
+          <cell r="E54">
+            <v>0.9609322031200761</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>5.0999999999999999E-7</v>
+          </cell>
+          <cell r="C55">
+            <v>0.91710999999999998</v>
+          </cell>
+          <cell r="E55">
+            <v>0.97515430084765997</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>5.2E-7</v>
+          </cell>
+          <cell r="C56">
+            <v>0.90581999999999996</v>
+          </cell>
+          <cell r="E56">
+            <v>0.9913849356536022</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>5.2499999999999995E-7</v>
+          </cell>
+          <cell r="C57">
+            <v>0.90134000000000003</v>
+          </cell>
+          <cell r="E57">
+            <v>0.99860580152088596</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="20210301"/>
+      <sheetName val="20210304"/>
+      <sheetName val="20120305"/>
+      <sheetName val="20120417"/>
+      <sheetName val="20120418"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="6">
+          <cell r="D6">
+            <v>1.9999999999999999E-7</v>
+          </cell>
+          <cell r="E6">
+            <v>0.98792000000000002</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>2.1E-7</v>
+          </cell>
+          <cell r="E7">
+            <v>0.98943000000000003</v>
+          </cell>
+          <cell r="G7">
+            <v>7.0489783835573968E-3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>2.2000000000000001E-7</v>
+          </cell>
+          <cell r="E8">
+            <v>0.99124999999999996</v>
+          </cell>
+          <cell r="G8">
+            <v>1.4572238898137618E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>2.2999999999999999E-7</v>
+          </cell>
+          <cell r="E9">
+            <v>0.99297999999999997</v>
+          </cell>
+          <cell r="G9">
+            <v>2.4328445150385632E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>2.3999999999999998E-7</v>
+          </cell>
+          <cell r="E10">
+            <v>0.99475000000000002</v>
+          </cell>
+          <cell r="G10">
+            <v>3.5553652768184299E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>2.4999999999999999E-7</v>
+          </cell>
+          <cell r="E11">
+            <v>0.99678</v>
+          </cell>
+          <cell r="G11">
+            <v>4.7372508825149082E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>2.6E-7</v>
+          </cell>
+          <cell r="E12">
+            <v>0.99792000000000003</v>
+          </cell>
+          <cell r="G12">
+            <v>6.3491735076824193E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>2.7000000000000001E-7</v>
+          </cell>
+          <cell r="E13">
+            <v>0.99894000000000005</v>
+          </cell>
+          <cell r="G13">
+            <v>8.1501723649489613E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>2.8000000000000002E-7</v>
+          </cell>
+          <cell r="E14">
+            <v>0.99922</v>
+          </cell>
+          <cell r="G14">
+            <v>0.10190699613889784</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>2.8999999999999998E-7</v>
+          </cell>
+          <cell r="E15">
+            <v>0.99777000000000005</v>
+          </cell>
+          <cell r="G15">
+            <v>0.12798614714205231</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>2.9999999999999999E-7</v>
+          </cell>
+          <cell r="E16">
+            <v>0.99434</v>
+          </cell>
+          <cell r="G16">
+            <v>0.15769562546353919</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>3.1E-7</v>
+          </cell>
+          <cell r="E17">
+            <v>0.98704000000000003</v>
+          </cell>
+          <cell r="G17">
+            <v>0.19210336167354747</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>3.2000000000000001E-7</v>
+          </cell>
+          <cell r="E18">
+            <v>0.97377999999999998</v>
+          </cell>
+          <cell r="G18">
+            <v>0.24257461985809736</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>3.3000000000000002E-7</v>
+          </cell>
+          <cell r="E19">
+            <v>0.95362999999999998</v>
+          </cell>
+          <cell r="G19">
+            <v>0.30126305469523396</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>3.3999999999999997E-7</v>
+          </cell>
+          <cell r="E20">
+            <v>0.93830999999999998</v>
+          </cell>
+          <cell r="G20">
+            <v>0.37326958641961555</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>3.4999999999999998E-7</v>
+          </cell>
+          <cell r="E21">
+            <v>0.93125000000000002</v>
+          </cell>
+          <cell r="G21">
+            <v>0.45335164677758716</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>3.5999999999999999E-7</v>
+          </cell>
+          <cell r="E22">
+            <v>0.93859999999999999</v>
+          </cell>
+          <cell r="G22">
+            <v>0.52696405323419038</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>3.7E-7</v>
+          </cell>
+          <cell r="E23">
+            <v>0.95572000000000001</v>
+          </cell>
+          <cell r="G23">
+            <v>0.59969792366285868</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>3.8000000000000001E-7</v>
+          </cell>
+          <cell r="E24">
+            <v>0.97033000000000003</v>
+          </cell>
+          <cell r="G24">
+            <v>0.65914075356746116</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>3.9000000000000002E-7</v>
+          </cell>
+          <cell r="E25">
+            <v>0.98014999999999997</v>
+          </cell>
+          <cell r="G25">
+            <v>0.71380415649400464</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>3.9999999999999998E-7</v>
+          </cell>
+          <cell r="E26">
+            <v>0.98165999999999998</v>
+          </cell>
+          <cell r="G26">
+            <v>0.75991138245283452</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>4.0999999999999999E-7</v>
+          </cell>
+          <cell r="E27">
+            <v>0.97592000000000001</v>
+          </cell>
+          <cell r="G27">
+            <v>0.79983702520061506</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>4.2E-7</v>
+          </cell>
+          <cell r="E28">
+            <v>0.93100000000000005</v>
+          </cell>
+          <cell r="G28">
+            <v>0.8496159587979335</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>4.2100000000000002E-7</v>
+          </cell>
+          <cell r="E29">
+            <v>0.91174999999999995</v>
+          </cell>
+          <cell r="G29">
+            <v>0.85836471340945186</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>4.2199999999999999E-7</v>
+          </cell>
+          <cell r="E30">
+            <v>0.89141000000000004</v>
+          </cell>
+          <cell r="G30">
+            <v>0.86635588985195389</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>4.2300000000000002E-7</v>
+          </cell>
+          <cell r="E31">
+            <v>0.84701000000000004</v>
+          </cell>
+          <cell r="G31">
+            <v>0.88001298705432607</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>4.2399999999999999E-7</v>
+          </cell>
+          <cell r="E32">
+            <v>0.78512999999999999</v>
+          </cell>
+          <cell r="G32">
+            <v>0.89610356539204672</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33">
+            <v>4.2500000000000001E-7</v>
+          </cell>
+          <cell r="E33">
+            <v>0.68020999999999998</v>
+          </cell>
+          <cell r="G33">
+            <v>0.91789667015746812</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34">
+            <v>4.2599999999999998E-7</v>
+          </cell>
+          <cell r="E34">
+            <v>0.50470999999999999</v>
+          </cell>
+          <cell r="G34">
+            <v>0.95083381345115059</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35">
+            <v>4.27E-7</v>
+          </cell>
+          <cell r="E35">
+            <v>0.26996999999999999</v>
+          </cell>
+          <cell r="G35">
+            <v>0.97916978345360162</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36">
+            <v>4.2800000000000002E-7</v>
+          </cell>
+          <cell r="E36">
+            <v>3.6999999999999999E-4</v>
+          </cell>
+          <cell r="G36">
+            <v>0.74349771930773922</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="D37">
+            <v>4.2899999999999999E-7</v>
+          </cell>
+          <cell r="E37">
+            <v>0.19606000000000001</v>
+          </cell>
+          <cell r="G37">
+            <v>0.66769533898439959</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="D38">
+            <v>4.3000000000000001E-7</v>
+          </cell>
+          <cell r="E38">
+            <v>0.48454000000000003</v>
+          </cell>
+          <cell r="G38">
+            <v>0.69811624050242083</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="D39">
+            <v>4.3099999999999998E-7</v>
+          </cell>
+          <cell r="E39">
+            <v>0.65842999999999996</v>
+          </cell>
+          <cell r="G39">
+            <v>0.72859443784835065</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="D40">
+            <v>4.32E-7</v>
+          </cell>
+          <cell r="E40">
+            <v>0.79449000000000003</v>
+          </cell>
+          <cell r="G40">
+            <v>0.75497757504957685</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="D41">
+            <v>4.3300000000000003E-7</v>
+          </cell>
+          <cell r="E41">
+            <v>0.86151999999999995</v>
+          </cell>
+          <cell r="G41">
+            <v>0.77944289356663354</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="D42">
+            <v>4.34E-7</v>
+          </cell>
+          <cell r="E42">
+            <v>0.89680000000000004</v>
+          </cell>
+          <cell r="G42">
+            <v>0.79165645421585884</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="D43">
+            <v>4.3500000000000002E-7</v>
+          </cell>
+          <cell r="E43">
+            <v>0.91554000000000002</v>
+          </cell>
+          <cell r="G43">
+            <v>0.80913645638036791</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="D44">
+            <v>4.3599999999999999E-7</v>
+          </cell>
+          <cell r="E44">
+            <v>0.93181999999999998</v>
+          </cell>
+          <cell r="G44">
+            <v>0.8151461521076907</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="D45">
+            <v>4.3700000000000001E-7</v>
+          </cell>
+          <cell r="E45">
+            <v>0.94284999999999997</v>
+          </cell>
+          <cell r="G45">
+            <v>0.82137866494354772</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="D46">
+            <v>4.3799999999999998E-7</v>
+          </cell>
+          <cell r="E46">
+            <v>0.95228000000000002</v>
+          </cell>
+          <cell r="G46">
+            <v>0.8270636843127207</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="D47">
+            <v>4.39E-7</v>
+          </cell>
+          <cell r="E47">
+            <v>0.95706000000000002</v>
+          </cell>
+          <cell r="G47">
+            <v>0.83156299835433645</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="D48">
+            <v>4.4000000000000002E-7</v>
+          </cell>
+          <cell r="E48">
+            <v>0.96065999999999996</v>
+          </cell>
+          <cell r="G48">
+            <v>0.83623579143045401</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="D49">
+            <v>4.4999999999999998E-7</v>
+          </cell>
+          <cell r="E49">
+            <v>0.97131999999999996</v>
+          </cell>
+          <cell r="G49">
+            <v>0.86786627153766094</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="D50">
+            <v>4.5999999999999999E-7</v>
+          </cell>
+          <cell r="E50">
+            <v>0.96492999999999995</v>
+          </cell>
+          <cell r="G50">
+            <v>0.89091351831397481</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="D51">
+            <v>4.7E-7</v>
+          </cell>
+          <cell r="E51">
+            <v>0.95889000000000002</v>
+          </cell>
+          <cell r="G51">
+            <v>0.91002645157388462</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="D52">
+            <v>4.7999999999999996E-7</v>
+          </cell>
+          <cell r="E52">
+            <v>0.94894999999999996</v>
+          </cell>
+          <cell r="G52">
+            <v>0.9270846927829538</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="D53">
+            <v>4.8999999999999997E-7</v>
+          </cell>
+          <cell r="E53">
+            <v>0.93711999999999995</v>
+          </cell>
+          <cell r="G53">
+            <v>0.94479546980987339</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="D54">
+            <v>4.9999999999999998E-7</v>
+          </cell>
+          <cell r="E54">
+            <v>0.92710999999999999</v>
+          </cell>
+          <cell r="G54">
+            <v>0.9609322031200761</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="D55">
+            <v>5.0999999999999999E-7</v>
+          </cell>
+          <cell r="E55">
+            <v>0.91710999999999998</v>
+          </cell>
+          <cell r="G55">
+            <v>0.97515430084765997</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="D56">
+            <v>5.2E-7</v>
+          </cell>
+          <cell r="E56">
+            <v>0.90581999999999996</v>
+          </cell>
+          <cell r="G56">
+            <v>0.9913849356536022</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="D57">
+            <v>5.2499999999999995E-7</v>
+          </cell>
+          <cell r="E57">
+            <v>0.90134000000000003</v>
+          </cell>
+          <cell r="G57">
+            <v>0.99860580152088596</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,7 +4859,7 @@
   <dimension ref="A4:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -479,8 +4867,8 @@
     <col min="1" max="1" width="16.06640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="15.19921875" style="5" customWidth="1"/>
     <col min="3" max="5" width="14.73046875" style="5" customWidth="1"/>
-    <col min="6" max="11" width="9.06640625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.06640625" style="5"/>
+    <col min="6" max="12" width="9.06640625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1055,4 +5443,992 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611CB066-BC1E-48F7-AE5D-B9106940D40F}">
+  <dimension ref="A4:E57"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.06640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="5" customWidth="1"/>
+    <col min="3" max="5" width="14.73046875" style="5" customWidth="1"/>
+    <col min="6" max="8" width="9.06640625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.98792000000000002</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-2.1918600000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:E57" si="0">IF(D6-$D$6&lt;0, (D6-$D$6+2*3.14159)/2/3.14159, (D6-$D$6)/2/3.14159)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.1E-7</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.98943000000000003</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-2.14757</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>7.0489783835573968E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.2000000000000001E-7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.99124999999999996</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-2.1002999999999998</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4572238898137618E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.2999999999999999E-7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.99297999999999997</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-2.0390000000000001</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4328445150385632E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2.3999999999999998E-7</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.99475000000000002</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-1.9684699999999999</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>3.5553652768184299E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.99678</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-1.8942099999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7372508825149082E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2.6E-7</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.99792000000000003</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-1.7929299999999999</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>6.3491735076824193E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="9">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2.7000000000000001E-7</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.99894000000000005</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-1.67977</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>8.1501723649489613E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2.8000000000000002E-7</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.99922</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-1.5515600000000001</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10190699613889784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.99777000000000005</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-1.3876999999999999</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12798614714205231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.99434</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-1.20103</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15769562546353919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="9">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3.1E-7</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.98704000000000003</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.98484000000000005</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19210336167354747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="9">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3.2000000000000001E-7</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.97377999999999998</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.66771999999999998</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.24257461985809736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="9">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3.3000000000000002E-7</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.95362999999999998</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.29897000000000001</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.30126305469523396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="9">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3.3999999999999997E-7</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.93830999999999998</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.15346000000000001</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.37326958641961555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3.4999999999999998E-7</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.93125000000000002</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.65663000000000005</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.45335164677758716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="9">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3.5999999999999999E-7</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.1191500000000001</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.52696405323419038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="9">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3.7E-7</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.95572000000000001</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.5761499999999999</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59969792366285868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="9">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3.8000000000000001E-7</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.97033000000000003</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.94964</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.65914075356746116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="9">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3.9000000000000002E-7</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.98014999999999997</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.2930999999999999</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.71380415649400464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="9">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.98165999999999998</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2.5828000000000002</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75991138245283452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="9">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4.0999999999999999E-7</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.97592000000000001</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2.8336600000000001</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.79983702520061506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="9">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4">
+        <v>4.2E-7</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-3.1367500000000001</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8496159587979335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="9">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4">
+        <v>4.2100000000000002E-7</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.91174999999999995</v>
+      </c>
+      <c r="D29" s="5">
+        <v>-3.0817800000000002</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>0.85836471340945186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="9">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4.2199999999999999E-7</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.89141000000000004</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-3.0315699999999999</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.86635588985195389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="9">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4.2300000000000002E-7</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.84701000000000004</v>
+      </c>
+      <c r="D31" s="5">
+        <v>-2.9457599999999999</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="0"/>
+        <v>0.88001298705432607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="9">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4.2399999999999999E-7</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.78512999999999999</v>
+      </c>
+      <c r="D32" s="5">
+        <v>-2.8446600000000002</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="0"/>
+        <v>0.89610356539204672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="9">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4.2500000000000001E-7</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.68020999999999998</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-2.7077300000000002</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.91789667015746812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="9">
+        <v>29</v>
+      </c>
+      <c r="B34" s="4">
+        <v>4.2599999999999998E-7</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.50470999999999999</v>
+      </c>
+      <c r="D34" s="5">
+        <v>-2.5007799999999998</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.95083381345115059</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="9">
+        <v>30</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4.27E-7</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.26996999999999999</v>
+      </c>
+      <c r="D35" s="5">
+        <v>-2.32274</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.97916978345360162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="9">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4">
+        <v>4.2800000000000002E-7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2.47967</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74349771930773922</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="9">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4">
+        <v>4.2899999999999999E-7</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.19606000000000001</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2.00339</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
+        <v>0.66769533898439959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="9">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4">
+        <v>4.3000000000000001E-7</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.48454000000000003</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2.1945299999999999</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
+        <v>0.69811624050242083</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="9">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4.3099999999999998E-7</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.65842999999999996</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2.3860299999999999</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="0"/>
+        <v>0.72859443784835065</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="9">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4">
+        <v>4.32E-7</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.79449000000000003</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2.5518000000000001</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75497757504957685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="9">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4">
+        <v>4.3300000000000003E-7</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.86151999999999995</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2.7055199999999999</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77944289356663354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="9">
+        <v>37</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4.34E-7</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2.78226</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.79165645421585884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="9">
+        <v>38</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4.3500000000000002E-7</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.91554000000000002</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2.89209</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.80913645638036791</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="9">
+        <v>39</v>
+      </c>
+      <c r="B44" s="4">
+        <v>4.3599999999999999E-7</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.93181999999999998</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2.9298500000000001</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8151461521076907</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="9">
+        <v>40</v>
+      </c>
+      <c r="B45" s="4">
+        <v>4.3700000000000001E-7</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.94284999999999997</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2.9690099999999999</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="0"/>
+        <v>0.82137866494354772</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="9">
+        <v>41</v>
+      </c>
+      <c r="B46" s="4">
+        <v>4.3799999999999998E-7</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.95228000000000002</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3.0047299999999999</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8270636843127207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="9">
+        <v>42</v>
+      </c>
+      <c r="B47" s="4">
+        <v>4.39E-7</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.95706000000000002</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>0.83156299835433645</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="9">
+        <v>43</v>
+      </c>
+      <c r="B48" s="4">
+        <v>4.4000000000000002E-7</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.96065999999999996</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3.06236</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="0"/>
+        <v>0.83623579143045401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="9">
+        <v>44</v>
+      </c>
+      <c r="B49" s="4">
+        <v>4.4999999999999998E-7</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.97131999999999996</v>
+      </c>
+      <c r="D49" s="5">
+        <v>-3.0220799999999999</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="0"/>
+        <v>0.86786627153766094</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="9">
+        <v>45</v>
+      </c>
+      <c r="B50" s="4">
+        <v>4.5999999999999999E-7</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.96492999999999995</v>
+      </c>
+      <c r="D50" s="5">
+        <v>-2.8772700000000002</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="0"/>
+        <v>0.89091351831397481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="9">
+        <v>46</v>
+      </c>
+      <c r="B51" s="4">
+        <v>4.7E-7</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.95889000000000002</v>
+      </c>
+      <c r="D51" s="5">
+        <v>-2.75718</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="0"/>
+        <v>0.91002645157388462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="9">
+        <v>47</v>
+      </c>
+      <c r="B52" s="4">
+        <v>4.7999999999999996E-7</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.94894999999999996</v>
+      </c>
+      <c r="D52" s="5">
+        <v>-2.65</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="0"/>
+        <v>0.9270846927829538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="9">
+        <v>48</v>
+      </c>
+      <c r="B53" s="4">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.93711999999999995</v>
+      </c>
+      <c r="D53" s="5">
+        <v>-2.5387200000000001</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="0"/>
+        <v>0.94479546980987339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="9">
+        <v>49</v>
+      </c>
+      <c r="B54" s="4">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0.92710999999999999</v>
+      </c>
+      <c r="D54" s="5">
+        <v>-2.4373300000000002</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="0"/>
+        <v>0.9609322031200761</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="9">
+        <v>50</v>
+      </c>
+      <c r="B55" s="4">
+        <v>5.0999999999999999E-7</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.91710999999999998</v>
+      </c>
+      <c r="D55" s="5">
+        <v>-2.3479700000000001</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="0"/>
+        <v>0.97515430084765997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="9">
+        <v>51</v>
+      </c>
+      <c r="B56" s="4">
+        <v>5.2E-7</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.90581999999999996</v>
+      </c>
+      <c r="D56" s="5">
+        <v>-2.2459899999999999</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="0"/>
+        <v>0.9913849356536022</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="9">
+        <v>52</v>
+      </c>
+      <c r="B57" s="4">
+        <v>5.2499999999999995E-7</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0.90134000000000003</v>
+      </c>
+      <c r="D57" s="5">
+        <v>-2.2006199999999998</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99860580152088596</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>